--- a/biology/Biologie cellulaire et moléculaire/Cellulase/Cellulase.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Cellulase/Cellulase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une cellulase est une enzyme qui peut décomposer la cellulose. Elles sont produites typiquement par des bactéries, champignons et des protozoaires, qui jouent un rôle majeur dans la digestion par les animaux, et dans la transformation de la matière organique végétale en humus dans le sol. Elles ont aussi des applications biotechnologiques et industrielles.
 </t>
@@ -511,7 +523,9 @@
           <t>Types de cellulases</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Endo-cellulases: elles cassent la structure cristalline de la cellulose en chaînes polysaccharidiques.
 Exo-cellulases (cellobiohydrolases, 'CBH'): elles coupent 2-4 unités aux terminaisons des chaînes polysaccharides, libérant par exemple le cellobiose. Elles travaillent progressivement soit depuis la terminaison réductrice, soit depuis l'autre.
@@ -550,7 +564,9 @@
           <t>Activité biochimique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les conditions optimales d'hydrolyse de la cellulose sont un pH entre 6,5 et 7 et une température entre 39 et 40 °C pour des cellulases classiques liées à la digestion des animaux.
 </t>
@@ -581,7 +597,9 @@
           <t>Cellulase et digestion chez les animaux</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La plupart des animaux (dont l'homme) ne peuvent pas synthétiser de cellulase. Aussi, afin de digérer la cellulose des parois des cellules végétales, ils ont, notamment les ruminants dans leur panse, des microorganismes (flore intestinale) qui peuvent, eux, en produire. La cellulase digère la cellulose, composant majeur de la paroi cellulaire (rôle structural), tandis que des pectinases décomposent un autre composant important, la pectine (qui fait office de 'colle').
 </t>
@@ -612,9 +630,11 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En biotechnologie, la cellulase peut être utilisée, combinée à la pectinase, ou la Pectolyase Y-23[1], pour obtenir des cellules végétales dépourvues de leur paroi, appelés protoplastes. Ceux-ci peuvent être dé-différenciés, modifiés génétiquement, cultivés, fusionnés...
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En biotechnologie, la cellulase peut être utilisée, combinée à la pectinase, ou la Pectolyase Y-23, pour obtenir des cellules végétales dépourvues de leur paroi, appelés protoplastes. Ceux-ci peuvent être dé-différenciés, modifiés génétiquement, cultivés, fusionnés...
 Les cellulases ont des applications en industrie, notamment pour la fabrication de diverses substances et matériaux à partir de matières végétales:
 pour dégrader les parois végétales afin de modifier la texture:
 AgroAlimentaire: préparations alimentaires
